--- a/docs/DB schemav0.1.xlsx
+++ b/docs/DB schemav0.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>Users</t>
   </si>
@@ -42,12 +42,6 @@
     <t>u_status</t>
   </si>
   <si>
-    <t>l_created</t>
-  </si>
-  <si>
-    <t>l_modifed</t>
-  </si>
-  <si>
     <t>P_id</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>d_name</t>
   </si>
   <si>
-    <t>d_did</t>
-  </si>
-  <si>
     <t>d_created</t>
   </si>
   <si>
@@ -159,9 +150,6 @@
     <t>s_id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -225,22 +213,85 @@
     <t>ps_phid</t>
   </si>
   <si>
-    <t>com.pmrs</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>localdate</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>text</t>
+    <t>u_created</t>
+  </si>
+  <si>
+    <t>u_modifed</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>not null,length=150</t>
+  </si>
+  <si>
+    <t>unique,notnull,length=100</t>
+  </si>
+  <si>
+    <t>not null,length=12</t>
+  </si>
+  <si>
+    <t>not null,length=60</t>
+  </si>
+  <si>
+    <t>primary,autogenerated</t>
+  </si>
+  <si>
+    <t>not null,max length,min length=1,special char not allowed</t>
+  </si>
+  <si>
+    <t>not null,max length,min length=10</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>foreign key(users),not null,cascade</t>
+  </si>
+  <si>
+    <t>foreign key(groups),not null,cascade</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>default=2</t>
+  </si>
+  <si>
+    <t>foreing key(projects),not null</t>
+  </si>
+  <si>
+    <t>foreing key(phases),not null</t>
+  </si>
+  <si>
+    <t>length=100,unique,not null,</t>
+  </si>
+  <si>
+    <t>primary key ,autogenerated</t>
+  </si>
+  <si>
+    <t>not null , length=150</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>integer=11  , primary key autogenerated</t>
+  </si>
+  <si>
+    <t>length=100 unique ,notnull</t>
+  </si>
+  <si>
+    <t>length=150 notnull</t>
+  </si>
+  <si>
+    <t>length=12 notnull</t>
+  </si>
+  <si>
+    <t>foreignkey(dept), cascade all</t>
+  </si>
+  <si>
+    <t>foreign key(users),not nulll</t>
   </si>
 </sst>
 </file>
@@ -579,276 +630,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="C16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -856,161 +938,195 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
       <c r="B33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="47" spans="1:3" s="1" customFormat="1">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1">
+      <c r="A55" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1">
+      <c r="A60" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/docs/DB schemav0.1.xlsx
+++ b/docs/DB schemav0.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="1530" windowWidth="14805" windowHeight="8010"/>
@@ -300,8 +300,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +320,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,9 +348,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,10 +446,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +480,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,14 +655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
@@ -657,7 +670,7 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,99 +679,125 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -768,8 +807,10 @@
       <c r="C13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -779,8 +820,10 @@
       <c r="C14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -790,8 +833,10 @@
       <c r="C15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -801,8 +846,10 @@
       <c r="C16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -812,8 +859,10 @@
       <c r="C17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -823,8 +872,10 @@
       <c r="C18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -834,8 +885,10 @@
       <c r="C19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -845,8 +898,10 @@
       <c r="C20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -856,16 +911,21 @@
       <c r="C21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A22" t="s">
         <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -875,78 +935,95 @@
       <c r="C23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" s="2" customFormat="1">
+      <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" s="2" customFormat="1">
+      <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" s="2" customFormat="1">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D29">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
         <v>4</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="2" customFormat="1">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
       <c r="D30">
         <v>5</v>
       </c>
@@ -954,196 +1031,480 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="2" customFormat="1">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1">
+      <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1">
+      <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1">
+      <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" t="s">
         <v>43</v>
       </c>
+      <c r="B48"/>
       <c r="C48" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" t="s">
         <v>47</v>
       </c>
+      <c r="B49"/>
       <c r="C49" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1">
       <c r="A50" t="s">
         <v>49</v>
       </c>
+      <c r="B50"/>
       <c r="C50" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1">
       <c r="A51" t="s">
         <v>50</v>
       </c>
+      <c r="B51"/>
       <c r="C51" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1">
       <c r="A52" t="s">
         <v>55</v>
       </c>
+      <c r="B52"/>
       <c r="C52" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1">
+      <c r="A56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1">
+      <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" s="2" customFormat="1">
+      <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1">
+      <c r="A61" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" s="2" customFormat="1">
+      <c r="A62" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1">
+      <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" s="2" customFormat="1">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5" s="2" customFormat="1">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" s="2" customFormat="1">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" s="2" customFormat="1">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5" s="2" customFormat="1">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5" s="2" customFormat="1">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5" s="2" customFormat="1">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5" s="2" customFormat="1">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5" s="2" customFormat="1">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5" s="2" customFormat="1">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="1:5" s="2" customFormat="1">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="1:5" s="2" customFormat="1">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="1:5" s="2" customFormat="1">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="1:5" s="2" customFormat="1">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:5" s="2" customFormat="1">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:5" s="2" customFormat="1">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:5" s="2" customFormat="1">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1152,24 +1513,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/DB schemav0.1.xlsx
+++ b/docs/DB schemav0.1.xlsx
@@ -310,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +335,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -348,12 +354,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -798,145 +805,145 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D19"/>
-      <c r="E19"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1">
       <c r="A24"/>

--- a/docs/DB schemav0.1.xlsx
+++ b/docs/DB schemav0.1.xlsx
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,66 +1206,66 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B48"/>
-      <c r="C48" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B49"/>
-      <c r="C49" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B50"/>
-      <c r="C50" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B51"/>
-      <c r="C51" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B52"/>
-      <c r="C52" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B53"/>
-      <c r="C53"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
       <c r="D53"/>
       <c r="E53"/>
     </row>

--- a/docs/DB schemav0.1.xlsx
+++ b/docs/DB schemav0.1.xlsx
@@ -183,9 +183,6 @@
     <t>s_created</t>
   </si>
   <si>
-    <t>s_did</t>
-  </si>
-  <si>
     <t>project_details</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>active/inactive</t>
+  </si>
+  <si>
+    <t>s_deptid</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,12 +326,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +348,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:C53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -694,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -707,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -720,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -733,7 +726,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -746,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -775,7 +768,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -786,7 +779,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -797,7 +790,7 @@
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -805,145 +798,145 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1">
-      <c r="A14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1">
-      <c r="A16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1">
       <c r="A24"/>
@@ -969,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -980,13 +973,13 @@
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
@@ -997,13 +990,13 @@
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
@@ -1017,7 +1010,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
@@ -1055,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1068,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1106,7 +1099,7 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1117,7 +1110,7 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1138,10 +1131,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1211,10 +1204,10 @@
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48"/>
+        <v>85</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" s="3" t="s">
@@ -1222,10 +1215,10 @@
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
+        <v>87</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1">
       <c r="A50" s="3" t="s">
@@ -1233,10 +1226,10 @@
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50"/>
+        <v>86</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1">
       <c r="A51" s="3" t="s">
@@ -1244,21 +1237,21 @@
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51"/>
+        <v>88</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52"/>
+        <v>89</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1">
       <c r="A53" s="3" t="s">
@@ -1266,8 +1259,8 @@
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53"/>
-      <c r="E53"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1">
       <c r="A54"/>
@@ -1291,7 +1284,7 @@
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1302,7 +1295,7 @@
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>

--- a/docs/DB schemav0.1.xlsx
+++ b/docs/DB schemav0.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>Users</t>
   </si>
@@ -102,9 +102,6 @@
     <t>ph_id</t>
   </si>
   <si>
-    <t>project_status</t>
-  </si>
-  <si>
     <t>ph_phase</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>s_created</t>
   </si>
   <si>
-    <t>project_details</t>
-  </si>
-  <si>
     <t>p_created</t>
   </si>
   <si>
@@ -295,6 +289,15 @@
   </si>
   <si>
     <t>s_deptid</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>phase_status</t>
   </si>
 </sst>
 </file>
@@ -658,14 +661,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
     <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
@@ -687,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -700,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -713,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -726,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -739,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -768,7 +771,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -779,7 +782,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -790,7 +793,7 @@
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -805,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -818,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -831,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -844,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -857,7 +860,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -870,7 +873,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -883,43 +886,43 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -927,13 +930,13 @@
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -947,7 +950,7 @@
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -956,13 +959,13 @@
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -973,13 +976,13 @@
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
@@ -990,13 +993,13 @@
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
@@ -1007,10 +1010,10 @@
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
@@ -1048,30 +1051,30 @@
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1086,7 +1089,7 @@
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1095,32 +1098,32 @@
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1128,13 +1131,13 @@
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1157,7 +1160,7 @@
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1200,62 +1203,62 @@
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1">
       <c r="A51" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1">
       <c r="A52" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1">
       <c r="A53" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1284,25 +1287,25 @@
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1">
       <c r="A58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1336,7 +1339,7 @@
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1">
       <c r="A62" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1345,9 +1348,11 @@
     </row>
     <row r="63" spans="1:5" s="2" customFormat="1">
       <c r="A63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>

--- a/docs/DB schemav0.1.xlsx
+++ b/docs/DB schemav0.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="1530" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>Users</t>
   </si>
@@ -292,13 +292,16 @@
   </si>
   <si>
     <t>foreign key(users),not nulll</t>
+  </si>
+  <si>
+    <t>active/inactive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +345,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -388,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,9 +431,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,6 +466,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,14 +642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
@@ -644,7 +657,7 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +666,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -664,7 +677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -675,7 +688,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -686,7 +699,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -697,7 +710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -708,7 +721,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -716,7 +729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -724,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -732,7 +745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -740,12 +753,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -756,7 +769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -767,7 +780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -778,7 +791,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -789,7 +802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -800,7 +813,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -811,7 +824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -822,7 +835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1">
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -833,7 +846,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -844,7 +857,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1">
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -852,7 +865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1">
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -863,12 +876,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -885,7 +898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -902,7 +915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -919,7 +932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -933,7 +946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>5</v>
       </c>
@@ -941,12 +954,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1">
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -957,7 +970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -968,7 +981,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -976,12 +989,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1">
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -989,7 +1002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -997,48 +1010,51 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
       <c r="C40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1">
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1054,7 +1070,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1062,7 +1078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1070,7 +1086,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1078,17 +1094,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1">
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1096,7 +1112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -1104,27 +1120,27 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="1" customFormat="1">
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -1136,24 +1152,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/DB schemav0.1.xlsx
+++ b/docs/DB schemav0.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>Users</t>
   </si>
@@ -298,6 +298,33 @@
   </si>
   <si>
     <t>phase_status</t>
+  </si>
+  <si>
+    <t>mentor</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -659,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1365,63 +1392,81 @@
       <c r="E64"/>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1">
-      <c r="A65"/>
+      <c r="A65" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1">
-      <c r="A66"/>
+      <c r="A66" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1">
-      <c r="A67"/>
+      <c r="A67" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1">
-      <c r="A68"/>
+      <c r="A68" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1">
-      <c r="A69"/>
+      <c r="A69" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1">
-      <c r="A70"/>
+      <c r="A70" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1">
-      <c r="A71"/>
+      <c r="A71" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1">
-      <c r="A72"/>
+      <c r="A72" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
     </row>
     <row r="73" spans="1:5" s="2" customFormat="1">
-      <c r="A73"/>
+      <c r="A73" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -1510,6 +1555,13 @@
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
+    </row>
+    <row r="86" spans="1:5" s="2" customFormat="1">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
